--- a/services/features/step_definitions/fatfreecrm.xlsx
+++ b/services/features/step_definitions/fatfreecrm.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="460" windowWidth="31540" windowHeight="19680" tabRatio="866" activeTab="3"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="31540" windowHeight="19680" tabRatio="866"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke_test" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="createAccount_regression" sheetId="5" r:id="rId3"/>
     <sheet name="getAccountByAccountId" sheetId="9" r:id="rId4"/>
     <sheet name="deleteAccount_regression" sheetId="17" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc427691520" localSheetId="0">Smoke_test!#REF!</definedName>
@@ -158,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="143">
   <si>
     <t>Scenario ID</t>
   </si>
@@ -1152,6 +1153,29 @@
   </si>
   <si>
     <t>failed test, delete an deleted account and expect 204</t>
+  </si>
+  <si>
+    <t>{
+     "account": {
+        "id":"ID",
+        "user_id": 1,
+        "assigned_to": 1,
+        "name": "NAME",
+        "access": "Public",
+        "website": "",
+        "toll_free_phone": "",
+        "phone": "",
+        "fax": "",
+        "deleted_at": null,
+        "created_at": "STRING",
+        "updated_at": "STRING",
+        "email": "",
+        "background_info": null,
+        "rating": 0,
+        "category": null,
+        "subscribed_users": []
+    }
+}</t>
   </si>
 </sst>
 </file>
@@ -4338,9 +4362,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4414,7 +4438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
@@ -4451,7 +4475,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>55</v>
       </c>
@@ -4468,7 +4492,7 @@
         <v>58</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>50</v>
@@ -4477,7 +4501,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>45</v>
       </c>
@@ -4503,7 +4527,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>48</v>
       </c>
@@ -4532,7 +4556,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="16" customFormat="1" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" s="16" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16" t="s">
         <v>49</v>
       </c>
@@ -5737,7 +5761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -6331,4 +6355,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/services/features/step_definitions/fatfreecrm.xlsx
+++ b/services/features/step_definitions/fatfreecrm.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="143">
   <si>
     <t>Scenario ID</t>
   </si>
@@ -4364,7 +4364,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4438,7 +4438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="83" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>45</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>48</v>
       </c>
@@ -5390,7 +5390,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5398,8 +5398,8 @@
     <col min="1" max="1" width="7.6328125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11" style="5" customWidth="1"/>
     <col min="6" max="6" width="8" style="8" customWidth="1"/>
     <col min="7" max="7" width="12.7265625" style="8" customWidth="1"/>
     <col min="8" max="8" width="5.81640625" style="5" customWidth="1"/>
@@ -5409,7 +5409,7 @@
     <col min="12" max="12" width="16.453125" style="5" customWidth="1"/>
     <col min="13" max="13" width="6.54296875" style="5" customWidth="1"/>
     <col min="14" max="14" width="7.54296875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="22.453125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="16.36328125" style="5" customWidth="1"/>
     <col min="16" max="16" width="4.81640625" style="5" customWidth="1"/>
     <col min="17" max="17" width="17" style="5" customWidth="1"/>
     <col min="18" max="18" width="8.6328125" style="5" customWidth="1"/>
@@ -5472,7 +5472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="15" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" s="15" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="140.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -5558,17 +5558,13 @@
       <c r="M3" s="9">
         <v>500</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="N3" s="10"/>
       <c r="O3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q3" s="15"/>
     </row>
-    <row r="4" spans="1:18" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="90.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
@@ -5614,7 +5610,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -5761,8 +5757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5771,7 +5767,7 @@
     <col min="2" max="2" width="4.08984375" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.1796875" style="5" customWidth="1"/>
     <col min="4" max="4" width="4.453125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" style="5" customWidth="1"/>
     <col min="6" max="6" width="6.26953125" style="8" customWidth="1"/>
     <col min="7" max="7" width="10.7265625" style="8" customWidth="1"/>
     <col min="8" max="8" width="5.81640625" style="5" customWidth="1"/>
@@ -6129,12 +6125,13 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
     <col min="7" max="7" width="15.453125" customWidth="1"/>
     <col min="11" max="11" width="30.08984375" bestFit="1" customWidth="1"/>
   </cols>

--- a/services/features/step_definitions/fatfreecrm.xlsx
+++ b/services/features/step_definitions/fatfreecrm.xlsx
@@ -17,7 +17,6 @@
     <sheet name="createAccount_regression" sheetId="5" r:id="rId3"/>
     <sheet name="getAccountByAccountId" sheetId="9" r:id="rId4"/>
     <sheet name="deleteAccount_regression" sheetId="17" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc427691520" localSheetId="0">Smoke_test!#REF!</definedName>
@@ -4364,7 +4363,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6352,16 +6351,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/services/features/step_definitions/fatfreecrm.xlsx
+++ b/services/features/step_definitions/fatfreecrm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="460" windowWidth="31540" windowHeight="19680" tabRatio="866"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="31540" windowHeight="19680" tabRatio="866" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke_test" sheetId="1" r:id="rId1"/>
@@ -4361,9 +4361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4437,7 +4437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="83" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="222" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
@@ -4474,7 +4474,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>55</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>45</v>
       </c>
@@ -5389,7 +5389,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5471,7 +5471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="15" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" s="15" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
@@ -5757,7 +5757,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6123,8 +6123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/services/features/step_definitions/fatfreecrm.xlsx
+++ b/services/features/step_definitions/fatfreecrm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="460" windowWidth="31540" windowHeight="19680" tabRatio="866" activeTab="4"/>
+    <workbookView minimized="1" xWindow="4800" yWindow="460" windowWidth="31540" windowHeight="19680" tabRatio="866"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke_test" sheetId="1" r:id="rId1"/>
@@ -4361,9 +4361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4437,7 +4437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="222" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
@@ -4474,7 +4474,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>55</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>48</v>
       </c>
@@ -5389,7 +5389,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5471,7 +5471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="15" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" s="15" customFormat="1" ht="116" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
@@ -6123,8 +6123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/services/features/step_definitions/fatfreecrm.xlsx
+++ b/services/features/step_definitions/fatfreecrm.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3qi-Win10-155\Documents\3qilabs\training\3qi_training_project\services\features\step_definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="4800" yWindow="460" windowWidth="31540" windowHeight="19680" tabRatio="866"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="31540" windowHeight="19680" tabRatio="866"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke_test" sheetId="1" r:id="rId1"/>
@@ -1180,7 +1180,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4363,7 +4363,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4437,7 +4437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
@@ -4474,7 +4474,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>55</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>45</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>48</v>
       </c>

--- a/services/features/step_definitions/fatfreecrm.xlsx
+++ b/services/features/step_definitions/fatfreecrm.xlsx
@@ -4115,7 +4115,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4150,7 +4150,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4363,7 +4363,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4437,7 +4437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="118" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>47</v>
       </c>
@@ -5078,7 +5078,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5198,7 +5198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:18" ht="118" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
@@ -5389,7 +5389,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5402,7 +5402,7 @@
     <col min="6" max="6" width="8" style="8" customWidth="1"/>
     <col min="7" max="7" width="12.7265625" style="8" customWidth="1"/>
     <col min="8" max="8" width="5.81640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="4.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" style="5" customWidth="1"/>
     <col min="10" max="10" width="18.453125" style="5" customWidth="1"/>
     <col min="11" max="11" width="23.6328125" style="5" customWidth="1"/>
     <col min="12" max="12" width="16.453125" style="5" customWidth="1"/>
@@ -5471,7 +5471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="15" customFormat="1" ht="116" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" s="15" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="79" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="Q3" s="15"/>
     </row>
-    <row r="4" spans="1:18" ht="90.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -5756,8 +5756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6124,7 +6124,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
